--- a/src/main/resources/excel/basicinfo.xlsx
+++ b/src/main/resources/excel/basicinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horea.bucerzan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ImageResizer\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4820,7 +4820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4843,12 +4843,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4890,6 +4910,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5173,15 +5199,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R118" sqref="R118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -5221,8 +5247,11 @@
       <c r="M1" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -5262,8 +5291,11 @@
       <c r="M2" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -5303,8 +5335,11 @@
       <c r="M3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -5344,8 +5379,11 @@
       <c r="M4" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -5385,8 +5423,11 @@
       <c r="M5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -5426,8 +5467,11 @@
       <c r="M6" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -5467,8 +5511,11 @@
       <c r="M7" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -5508,8 +5555,11 @@
       <c r="M8" s="1">
         <v>461000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -5549,8 +5599,11 @@
       <c r="M9" s="1">
         <v>585</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -5590,8 +5643,11 @@
       <c r="M10" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -5631,8 +5687,11 @@
       <c r="M11" s="1">
         <v>23600</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -5672,8 +5731,11 @@
       <c r="M12" s="1">
         <v>23300</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -5713,8 +5775,11 @@
       <c r="M13" s="1">
         <v>82300</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -5754,8 +5819,11 @@
       <c r="M14" s="1">
         <v>282000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -5795,8 +5863,11 @@
       <c r="M15" s="1">
         <v>1050</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -5836,8 +5907,11 @@
       <c r="M16" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -5877,8 +5951,11 @@
       <c r="M17" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -5918,8 +5995,11 @@
       <c r="M18" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -5959,8 +6039,11 @@
       <c r="M19" s="1">
         <v>20900</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -6000,8 +6083,11 @@
       <c r="M20" s="1">
         <v>41500</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -6041,8 +6127,11 @@
       <c r="M21" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -6082,8 +6171,11 @@
       <c r="M22" s="1">
         <v>5650</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -6123,8 +6215,11 @@
       <c r="M23" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -6164,8 +6259,11 @@
       <c r="M24" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -6205,8 +6303,11 @@
       <c r="M25" s="1">
         <v>950</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -6246,8 +6347,11 @@
       <c r="M26" s="1">
         <v>56300</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -6287,8 +6391,11 @@
       <c r="M27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N27" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -6328,8 +6435,11 @@
       <c r="M28" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N28" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -6369,8 +6479,11 @@
       <c r="M29" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -6410,8 +6523,11 @@
       <c r="M30" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -6451,8 +6567,11 @@
       <c r="M31" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N31" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -6492,8 +6611,11 @@
       <c r="M32" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="184.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="184.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -6533,8 +6655,11 @@
       <c r="M33" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -6574,8 +6699,11 @@
       <c r="M34" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -6615,8 +6743,11 @@
       <c r="M35" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -6656,8 +6787,11 @@
       <c r="M36" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -6697,8 +6831,11 @@
       <c r="M37" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -6738,8 +6875,11 @@
       <c r="M38" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -6779,8 +6919,11 @@
       <c r="M39" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -6820,8 +6963,11 @@
       <c r="M40" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -6861,8 +7007,11 @@
       <c r="M41" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N41" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -6902,8 +7051,11 @@
       <c r="M42" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N42" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -6943,8 +7095,11 @@
       <c r="M43" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N43" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -6984,8 +7139,11 @@
       <c r="M44" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -7025,8 +7183,11 @@
       <c r="M45" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N45" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -7066,8 +7227,11 @@
       <c r="M46" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N46" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -7107,8 +7271,11 @@
       <c r="M47" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N47" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -7148,8 +7315,11 @@
       <c r="M48" s="1">
         <v>0.159</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N48" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -7189,8 +7359,11 @@
       <c r="M49" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N49" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -7230,8 +7403,11 @@
       <c r="M50" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="327" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N50" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="327" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -7271,8 +7447,11 @@
       <c r="M51" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N51" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -7312,8 +7491,11 @@
       <c r="M52" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N52" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -7353,8 +7535,11 @@
       <c r="M53" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -7394,8 +7579,11 @@
       <c r="M54" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -7435,8 +7623,11 @@
       <c r="M55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N55" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -7476,8 +7667,11 @@
       <c r="M56" s="1">
         <v>425</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N56" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -7517,8 +7711,11 @@
       <c r="M57" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N57" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -7556,8 +7753,11 @@
       <c r="M58" s="1">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N58" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -7595,8 +7795,11 @@
       <c r="M59" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N59" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -7634,8 +7837,11 @@
       <c r="M60" s="1">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N60" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -7673,8 +7879,11 @@
       <c r="M61" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N61" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -7712,8 +7921,11 @@
       <c r="M62" s="1">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N62" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -7751,8 +7963,11 @@
       <c r="M63" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N63" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -7790,8 +8005,11 @@
       <c r="M64" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N64" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -7829,8 +8047,11 @@
       <c r="M65" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N65" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -7868,8 +8089,11 @@
       <c r="M66" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N66" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -7907,8 +8131,11 @@
       <c r="M67" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N67" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -7946,8 +8173,11 @@
       <c r="M68" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N68" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -7985,8 +8215,11 @@
       <c r="M69" s="1">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N69" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -8024,8 +8257,11 @@
       <c r="M70" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N70" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -8063,8 +8299,11 @@
       <c r="M71" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N71" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -8104,8 +8343,11 @@
       <c r="M72" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N72" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -8145,8 +8387,11 @@
       <c r="M73" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="235.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N73" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="235.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -8186,8 +8431,11 @@
       <c r="M74" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N74" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -8227,8 +8475,11 @@
       <c r="M75" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N75" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -8268,8 +8519,11 @@
       <c r="M76" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N76" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -8309,8 +8563,11 @@
       <c r="M77" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N77" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -8350,8 +8607,11 @@
       <c r="M78" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N78" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -8391,8 +8651,11 @@
       <c r="M79" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="204.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N79" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="204.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -8432,8 +8695,11 @@
       <c r="M80" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N80" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -8473,8 +8739,11 @@
       <c r="M81" s="1">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N81" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -8514,8 +8783,11 @@
       <c r="M82" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N82" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -8555,8 +8827,11 @@
       <c r="M83" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N83" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -8596,8 +8871,11 @@
       <c r="M84" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N84" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -8637,8 +8915,11 @@
       <c r="M85" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -8678,8 +8959,11 @@
       <c r="M86" s="4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N86" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -8719,8 +9003,11 @@
       <c r="M87" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N87" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -8760,8 +9047,11 @@
       <c r="M88" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N88" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -8801,8 +9091,11 @@
       <c r="M89" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N89" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -8840,8 +9133,11 @@
       <c r="M90" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N90" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -8879,8 +9175,11 @@
       <c r="M91" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N91" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -8918,8 +9217,11 @@
       <c r="M92" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N92" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -8957,8 +9259,11 @@
       <c r="M93" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N93" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -8996,8 +9301,11 @@
       <c r="M94" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N94" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -9035,8 +9343,11 @@
       <c r="M95" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N95" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -9074,8 +9385,11 @@
       <c r="M96" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N96" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -9113,8 +9427,11 @@
       <c r="M97" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N97" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -9152,8 +9469,11 @@
       <c r="M98" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N98" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -9191,8 +9511,11 @@
       <c r="M99" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N99" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -9230,8 +9553,11 @@
       <c r="M100" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N100" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -9269,8 +9595,11 @@
       <c r="M101" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N101" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -9308,8 +9637,11 @@
       <c r="M102" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N102" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -9347,8 +9679,11 @@
       <c r="M103" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N103" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -9388,8 +9723,11 @@
       <c r="M104" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N104" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -9429,8 +9767,11 @@
       <c r="M105" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N105" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -9470,8 +9811,11 @@
       <c r="M106" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N106" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -9511,8 +9855,11 @@
       <c r="M107" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N107" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -9552,8 +9899,11 @@
       <c r="M108" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N108" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -9593,8 +9943,11 @@
       <c r="M109" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N109" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -9634,8 +9987,11 @@
       <c r="M110" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N110" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -9675,8 +10031,11 @@
       <c r="M111" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N111" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -9716,8 +10075,11 @@
       <c r="M112" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N112" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -9757,8 +10119,11 @@
       <c r="M113" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="143.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N113" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="143.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -9798,8 +10163,11 @@
       <c r="M114" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N114" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -9839,8 +10207,11 @@
       <c r="M115" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N115" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -9880,8 +10251,11 @@
       <c r="M116" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N116" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -9921,8 +10295,11 @@
       <c r="M117" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N117" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -9961,6 +10338,9 @@
       </c>
       <c r="M118" s="4" t="s">
         <v>395</v>
+      </c>
+      <c r="N118" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
